--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Final Image.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Final Image.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0A3A7A-4A41-0F47-A547-B2CBA957DA4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAC0F6B-77C4-9844-936A-5FA7DFAE0B4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1446,7 +1446,10 @@
         <v>4000</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="32">
+        <f>SUM(K4:K12)</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="11"/>
       <c r="M13" s="32">
         <f>SUM(M4:M12)</f>
